--- a/bots/crawl_ch/output/toilet_coop_2022-07-21.xlsx
+++ b/bots/crawl_ch/output/toilet_coop_2022-07-21.xlsx
@@ -531,7 +531,7 @@
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -604,7 +604,7 @@
       </c>
       <c r="O3" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -677,196 +677,196 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>4947421</t>
+          <t>4489512</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>80ST</t>
+          <t>24Rol</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F5" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Coop</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>11.60</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>0.03/1ST</t>
+          <t>0.48/1Rol</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 50% Aktion 11.60 Schweizer Franken statt 23.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>6497242</t>
+          <t>4947421</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
+          <t>Oecoplan Taschentuch Calendula Box</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/oecoplan-taschentuch-calendula-box/p/4947421</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4Rol</t>
+          <t>80ST</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F6" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>Coop</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>3.25</t>
+          <t>2.30</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>0.81/1Rol</t>
+          <t>0.03/1ST</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Preis pro 1 Rolle</t>
+          <t>Preis pro 1 Stück</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>1Rol</t>
+          <t>1ST</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
+          <t>Oecoplan Taschentuch Calendula Box 2.30 Schweizer Franken</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>4489512</t>
+          <t>6497242</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-weiss-3-lagig-24-rollen/p/4489512</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/super-soft-wc-papier-sensation-4-rollen-3-lagig/p/6497242</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>24Rol</t>
+          <t>4Rol</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F7" t="n">
-        <v>3.5</v>
+        <v>4.5</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>11.60</t>
+          <t>3.25</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>0.48/1Rol</t>
+          <t>0.81/1Rol</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
@@ -876,7 +876,7 @@
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>0.48</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
@@ -891,142 +891,142 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier weiss 3-lagig 24 Rollen 50% Aktion 11.60 Schweizer Franken statt 23.25 Schweizer Franken</t>
+          <t>Super Soft WC-Papier Sensation, 4 Rollen 3-lagig 3.25 Schweizer Franken</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>6498681</t>
+          <t>6568452</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>200BLT</t>
+          <t>4x 50ST</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="F8" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Super Soft</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I8" t="inlineStr"/>
-      <c r="J8" t="inlineStr"/>
-      <c r="K8" t="inlineStr"/>
-      <c r="L8" t="inlineStr"/>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>0.03/1ST</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>6568452</t>
+          <t>6498681</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST</t>
+          <t>subito Haushaltspapier decor 4 Rollen</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/feuchttuecher/super-soft-premium-mandel-feucht/p/6568452</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-4-rollen/p/6498681</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4x 50ST</t>
+          <t>200BLT</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="F9" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Super Soft</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>0.03/1ST</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>Super Soft Premium Mandel feucht 4x  50ST 43% Aktion 6.65 Schweizer Franken statt 11.80 Schweizer Franken</t>
+          <t>subito Haushaltspapier decor 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1170,7 +1170,7 @@
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1243,7 +1243,7 @@
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1316,7 +1316,7 @@
       </c>
       <c r="O13" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1389,7 +1389,7 @@
       </c>
       <c r="O14" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1462,36 +1462,36 @@
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3180824</t>
+          <t>6346813</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>12ST</t>
+          <t>9Rol</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F16" t="n">
-        <v>4</v>
+        <v>4.5</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
@@ -1500,172 +1500,172 @@
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>3.95</t>
+          <t>8.80</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0.33/1ST</t>
+          <t>0.98/1Rol</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Preis pro 1 Stück</t>
+          <t>Preis pro 1 Rolle</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0.33</t>
+          <t>0.98</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>1ST</t>
+          <t>1Rol</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
+          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>6346813</t>
+          <t>6834305</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/toilettenpapier/toilettenpapier/tempo-toilettenpapier-premium-4-lagig-9-rollen/p/6346813</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>9Rol</t>
+          <t>192BLT</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="F17" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Tempo</t>
+          <t>Zewa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>8.80</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>0.98/1Rol</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Rolle</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>1Rol</t>
-        </is>
-      </c>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'toilettenpapier', 'toilettenpapier']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>Tempo Toilettenpapier Premium 4-lagig 9 Rollen 8.80 Schweizer Franken</t>
+          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>6834305</t>
+          <t>3180824</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/zewa-wisch-weg-haushaltspapier-weiss-4-rollen/p/6834305</t>
+          <t>/de/inspiration-geschenke/saisonale-promotionen/gesundheit/tempo-taschentuecher-plus-aloe-kamille-12x9-stueck/p/3180824</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>192BLT</t>
+          <t>12ST</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="F18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Zewa</t>
+          <t>Tempo</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>5.50</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr"/>
-      <c r="J18" t="inlineStr"/>
-      <c r="K18" t="inlineStr"/>
-      <c r="L18" t="inlineStr"/>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>0.33/1ST</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['inspiration-geschenke', 'saisonale-promotionen', 'gesundheit']</t>
         </is>
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>Zewa Wisch&amp;amp;Weg Haushaltspapier weiss 4 Rollen 5.50 Schweizer Franken</t>
+          <t>Tempo Taschentücher Plus Aloe &amp;amp; Kamille 12x9 Stück 3.95 Schweizer Franken</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1720,7 +1720,7 @@
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1777,50 +1777,50 @@
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>6478814</t>
+          <t>3640534</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>15ST</t>
+          <t>50ST</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>2.5</v>
+        <v>5</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Super Silk</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>2.10</t>
+          <t>3.75</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>0.14/1ST</t>
+          <t>0.08/1ST</t>
         </is>
       </c>
       <c r="J21" t="inlineStr">
@@ -1830,7 +1830,7 @@
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>0.14</t>
+          <t>0.08</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -1840,60 +1840,60 @@
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N21" t="inlineStr">
         <is>
-          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>3640534</t>
+          <t>6478814</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück</t>
+          <t>Super Silk Soft mit Baumwolle</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-sensitive-50-stueck/p/3640534</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/papiertaschentuecher/taschentuecher/super-silk-soft-mit-baumwolle/p/6478814</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>50ST</t>
+          <t>15ST</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="F22" t="n">
-        <v>5</v>
+        <v>2.5</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>Super Silk</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>3.75</t>
+          <t>2.10</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>0.08/1ST</t>
+          <t>0.14/1ST</t>
         </is>
       </c>
       <c r="J22" t="inlineStr">
@@ -1903,7 +1903,7 @@
       </c>
       <c r="K22" t="inlineStr">
         <is>
-          <t>0.08</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="L22" t="inlineStr">
@@ -1913,17 +1913,17 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'papiertaschentuecher', 'taschentuecher']</t>
         </is>
       </c>
       <c r="N22" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Sensitive 50 Stück 3.75 Schweizer Franken</t>
+          <t>Super Silk Soft mit Baumwolle 2.10 Schweizer Franken</t>
         </is>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -1980,7 +1980,7 @@
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2053,7 +2053,7 @@
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2126,135 +2126,135 @@
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>3630714</t>
+          <t>6498679</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück</t>
+          <t>Subito Haushaltspapier decor 12 Rollen</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
+          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>55ST</t>
-        </is>
-      </c>
-      <c r="E26" t="n">
-        <v>4</v>
-      </c>
+          <t>600BLT</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr"/>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Kandoo</t>
+          <t>subito</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>3.75</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>0.07/1ST</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>Preis pro 1 Stück</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>1ST</t>
-        </is>
-      </c>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="inlineStr">
         <is>
-          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
+          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
         </is>
       </c>
       <c r="N26" t="inlineStr">
         <is>
-          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
+          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
         </is>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>6498679</t>
+          <t>3630714</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>/de/haushalt-tier/toiletten-haushaltpapier/haushaltspapier/subito-haushaltspapier-decor-12-rollen/p/6498679</t>
+          <t>/de/kosmetik-gesundheit/baby-kind/pflege-accessoires/feuchttuecher/kandoo-feuchttuecher-melone-55-stueck/p/3630714</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>600BLT</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr"/>
+          <t>55ST</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>4</v>
+      </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>subito</t>
+          <t>Kandoo</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>10.95</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr"/>
-      <c r="J27" t="inlineStr"/>
-      <c r="K27" t="inlineStr"/>
-      <c r="L27" t="inlineStr"/>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>0.07/1ST</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Preis pro 1 Stück</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>1ST</t>
+        </is>
+      </c>
       <c r="M27" t="inlineStr">
         <is>
-          <t>['haushalt-tier', 'toiletten-haushaltpapier', 'haushaltspapier']</t>
+          <t>['kosmetik-gesundheit', 'baby-kind', 'pflege-accessoires', 'feuchttuecher']</t>
         </is>
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>Subito Haushaltspapier decor 12 Rollen 33% Aktion 10.95 Schweizer Franken statt 16.50 Schweizer Franken</t>
+          <t>Kandoo Feuchttücher Melone 55 Stück 3.75 Schweizer Franken</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2327,7 +2327,7 @@
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2400,7 +2400,7 @@
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2473,7 +2473,7 @@
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2544,7 +2544,7 @@
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2617,7 +2617,7 @@
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2690,7 +2690,7 @@
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2745,7 +2745,7 @@
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2816,7 +2816,7 @@
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2889,7 +2889,7 @@
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -2962,7 +2962,7 @@
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
@@ -3033,7 +3033,7 @@
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>2022-07-21 07:03:51</t>
+          <t>2022-07-21 20:57:03</t>
         </is>
       </c>
     </row>
